--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="1000" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="1000" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="007_batchRenewMoney" sheetId="10" r:id="rId8"/>
     <sheet name="008_batchRefundMoney" sheetId="11" r:id="rId9"/>
     <sheet name="009_checkTicketBillDetail" sheetId="13" r:id="rId10"/>
+    <sheet name="010_checkStoreValueChargeRecord" sheetId="14" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309">
   <si>
     <t>动作</t>
   </si>
@@ -933,6 +934,27 @@
   </si>
   <si>
     <t>3操作成功</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.储值扣费明细</t>
+  </si>
+  <si>
+    <t>1储值扣费明细界面</t>
+  </si>
+  <si>
+    <t>点击操作时间</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.操作时间</t>
+  </si>
+  <si>
+    <t>输入最近三个月</t>
+  </si>
+  <si>
+    <t>2搜索界面</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -941,9 +963,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -974,7 +996,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,59 +1077,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1056,15 +1094,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1073,17 +1103,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1096,7 +1118,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,13 +1134,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,7 +1154,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,25 +1208,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,7 +1256,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,31 +1286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,49 +1310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,19 +1328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,6 +1387,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1381,6 +1421,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1391,39 +1446,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,15 +1467,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1462,6 +1475,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1470,10 +1492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1482,133 +1504,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2472,8 +2494,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2640,6 +2662,220 @@
       </c>
       <c r="E10" s="2" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 B10 C10 C11">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">

--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="1000" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="309">
   <si>
     <t>动作</t>
   </si>
@@ -963,9 +963,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -996,21 +996,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,30 +1031,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,9 +1048,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,25 +1062,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,6 +1087,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1111,29 +1126,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,25 +1154,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,7 +1196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,19 +1208,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,7 +1250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,19 +1262,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,43 +1310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,24 +1335,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,20 +1387,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,21 +1432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1467,10 +1449,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1484,6 +1473,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1492,10 +1492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,133 +1504,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2684,11 +2684,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 B10 C10 C11">
       <formula1>Actions!$A$2:$A$37</formula1>
@@ -2710,7 +2710,7 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2898,11 +2898,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 B10 C10 C11">
       <formula1>Actions!$A$2:$A$37</formula1>
@@ -2924,7 +2924,7 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -4117,14 +4117,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6:C7">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27">
       <formula1>Actions!$A$2:$A$35</formula1>
@@ -4379,14 +4379,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6:C7 C15:C16">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 B13 C13 C14">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4650,14 +4650,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6:C7">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C12 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,19 @@
     <sheet name="008_batchRefundMoney" sheetId="11" r:id="rId9"/>
     <sheet name="009_checkTicketBillDetail" sheetId="13" r:id="rId10"/>
     <sheet name="010_checkStoreValueChargeRecord" sheetId="14" r:id="rId11"/>
+    <sheet name="011_exportTicketBillDetail" sheetId="15" r:id="rId12"/>
+    <sheet name="012_exporStoreValueChargeRecord" sheetId="16" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="312">
   <si>
     <t>动作</t>
   </si>
@@ -955,6 +957,15 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>点击导出</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.导出</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
   </si>
 </sst>
 </file>
@@ -962,10 +973,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -995,8 +1006,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,7 +1069,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,9 +1096,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,30 +1120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,14 +1135,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1093,47 +1142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,7 +1165,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,25 +1267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,43 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,31 +1291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,19 +1315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,37 +1345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,6 +1398,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1398,6 +1433,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,17 +1461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,33 +1487,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1492,10 +1503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,133 +1515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2711,7 +2722,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2919,12 +2930,485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C36:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 B11 C11 C12">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C24">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 B12 C12 C13">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C25">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -3867,7 +4351,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4400,7 +4884,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5080,7 +5564,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -1006,6 +1006,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1016,6 +1031,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,9 +1092,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,6 +1115,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1069,51 +1129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,22 +1145,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,19 +1165,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,19 +1213,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,6 +1291,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1256,72 +1322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,6 +1398,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1439,6 +1454,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1469,32 +1495,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1503,145 +1503,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2935,8 +2935,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3164,8 +3164,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3408,7 +3408,7 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -4351,7 +4351,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="7" activeTab="12"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="324">
   <si>
     <t>动作</t>
   </si>
@@ -332,7 +332,7 @@
     <t>创建对内月票</t>
   </si>
   <si>
-    <t>MonthTicketTypePage.对内创建月票</t>
+    <t>MonthTicketTypePage.创建月票</t>
   </si>
   <si>
     <t>5</t>
@@ -341,10 +341,7 @@
     <t>选择车场类型</t>
   </si>
   <si>
-    <t>MonthTicketTypePage.车场类型</t>
-  </si>
-  <si>
-    <t>传统停车场</t>
+    <t>MonthTicketTypePage.传统停车场</t>
   </si>
   <si>
     <t>6</t>
@@ -359,7 +356,7 @@
     <t>输入月票名称</t>
   </si>
   <si>
-    <t>MonthTicketTypePage.月票名称</t>
+    <t>MonthTicketTypePage.类型名称</t>
   </si>
   <si>
     <t>${001_addTicketBill}.月票名称</t>
@@ -368,156 +365,147 @@
     <t>8</t>
   </si>
   <si>
-    <t>输入简介</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.简介</t>
-  </si>
-  <si>
-    <t>艾科智泊</t>
+    <t>点击支持停车场</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.支持车场</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>点击支持停车场</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.支持停车场</t>
+    <t>选择停车场列表</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.选择停车场列表</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场入口;on</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>选择停车场列表</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.选择停车场列表</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场入口;on</t>
+    <t>$全局变量.停车场出口;on</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>$全局变量.停车场出口;on</t>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.确认-二级提示</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.确认-二级提示</t>
+    <t>点击财务主体</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.财务主体</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>点击财务主体</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.财务主体</t>
+    <t>输入支持授权车牌数</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.支持授权车牌数</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>输入支持授权车牌数</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.支持授权车牌数</t>
+    <t>输入允许车主向前续费</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.向前续费</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>输入允许车主向前续费</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.允许车主向前续费</t>
+    <t>续费方式</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.续费方式</t>
+  </si>
+  <si>
+    <t>自然月</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>续费方式</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.续费方式</t>
-  </si>
-  <si>
-    <t>自然月</t>
+    <t>输入单价</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.月票单价</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>输入单价</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.单价</t>
+    <t>月票数量</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.月票数量</t>
+  </si>
+  <si>
+    <t>无限</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>月票数量</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.月票数量</t>
-  </si>
-  <si>
-    <t>无限</t>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.备注</t>
+  </si>
+  <si>
+    <t>UI自动化测试</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.备注</t>
-  </si>
-  <si>
-    <t>UI自动化测试</t>
+    <t>2月票管理新增</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>2月票管理新增</t>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.确认-提示</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.确认-提示</t>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>月票创建成功</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>MonthTicketTypePage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>月票创建成功</t>
+    <t>3保存后截图</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>3保存后截图</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -530,13 +518,34 @@
     <t>25</t>
   </si>
   <si>
+    <t>点击选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>勾选checkbox停车场列表</t>
+  </si>
+  <si>
+    <t>MonthTicketTypePage.停车场列表</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>点击搜索按钮</t>
   </si>
   <si>
     <t>MonthTicketTypePage.搜索按钮</t>
   </si>
   <si>
-    <t>26</t>
+    <t>28</t>
   </si>
   <si>
     <t>上架</t>
@@ -545,49 +554,49 @@
     <t>MonthTicketTypePage.上架</t>
   </si>
   <si>
-    <t>27</t>
+    <t>29</t>
   </si>
   <si>
     <t>确认</t>
   </si>
   <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>MonthTicketBillPage.车场运营</t>
   </si>
   <si>
-    <t>29</t>
+    <t>31</t>
   </si>
   <si>
     <t>点击月票订单</t>
   </si>
   <si>
-    <t>MonthTicketBillPage.月票订单</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>MonthTicketBillPage.开通月票</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>4月票订单界面</t>
   </si>
   <si>
-    <t>31</t>
+    <t>33</t>
   </si>
   <si>
     <t>开通对内月票</t>
   </si>
   <si>
-    <t>MonthTicketBillPage.开通对内月票</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>MonthTicketBillPage.开通本地月票</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>MonthTicketBillPage.月票名称</t>
   </si>
   <si>
-    <t>33</t>
+    <t>35</t>
   </si>
   <si>
     <t>车主姓名</t>
@@ -599,7 +608,7 @@
     <t>UI车主</t>
   </si>
   <si>
-    <t>34</t>
+    <t>36</t>
   </si>
   <si>
     <t>购买手机号</t>
@@ -611,7 +620,7 @@
     <t>13800138000</t>
   </si>
   <si>
-    <t>35</t>
+    <t>37</t>
   </si>
   <si>
     <t>创建随机车牌</t>
@@ -620,7 +629,7 @@
     <t>车牌号</t>
   </si>
   <si>
-    <t>36</t>
+    <t>38</t>
   </si>
   <si>
     <t>MonthTicketBillPage.车牌号</t>
@@ -629,7 +638,7 @@
     <t>${001_addTicketBill}.车牌号</t>
   </si>
   <si>
-    <t>37</t>
+    <t>39</t>
   </si>
   <si>
     <t>可用车位数</t>
@@ -638,7 +647,7 @@
     <t>MonthTicketBillPage.可用车位数</t>
   </si>
   <si>
-    <t>38</t>
+    <t>40</t>
   </si>
   <si>
     <t>有效期自然月</t>
@@ -647,7 +656,7 @@
     <t>MonthTicketBillPage.有效期自然月</t>
   </si>
   <si>
-    <t>39</t>
+    <t>41</t>
   </si>
   <si>
     <t>折后价</t>
@@ -656,7 +665,7 @@
     <t>MonthTicketBillPage.折后价</t>
   </si>
   <si>
-    <t>40</t>
+    <t>42</t>
   </si>
   <si>
     <t>MonthTicketBillPage.备注</t>
@@ -665,43 +674,43 @@
     <t>UI自动化</t>
   </si>
   <si>
-    <t>41</t>
+    <t>43</t>
   </si>
   <si>
     <t>5月票订单填写界面</t>
   </si>
   <si>
-    <t>42</t>
+    <t>44</t>
   </si>
   <si>
     <t>MonthTicketBillPage.确认-提示</t>
   </si>
   <si>
-    <t>43</t>
+    <t>45</t>
   </si>
   <si>
     <t>MonthTicketBillPage.操作成功-提示</t>
   </si>
   <si>
-    <t>44</t>
+    <t>46</t>
   </si>
   <si>
     <t>6保存后截图</t>
   </si>
   <si>
-    <t>45</t>
+    <t>47</t>
   </si>
   <si>
     <t>暂停3秒</t>
   </si>
   <si>
-    <t>46</t>
+    <t>48</t>
   </si>
   <si>
     <t>${001_addTicketBill}.车牌号;0</t>
   </si>
   <si>
-    <t>47</t>
+    <t>49</t>
   </si>
   <si>
     <t>点击车场管理</t>
@@ -710,7 +719,7 @@
     <t>CarStatusPage.信息查询</t>
   </si>
   <si>
-    <t>48</t>
+    <t>50</t>
   </si>
   <si>
     <t>点击进出管理</t>
@@ -719,13 +728,22 @@
     <t>CarStatusPage.在场车辆</t>
   </si>
   <si>
-    <t>49</t>
+    <t>51</t>
   </si>
   <si>
     <t>7在场记录界面</t>
   </si>
   <si>
-    <t>50</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>点击多项筛选</t>
+  </si>
+  <si>
+    <t>CarStatusPage.多项筛选</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -734,7 +752,13 @@
     <t>CarStatusPage.车牌号搜索框</t>
   </si>
   <si>
-    <t>51</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
   <si>
     <t>搜索按钮</t>
@@ -743,19 +767,19 @@
     <t>CarStatusPage.搜索按钮</t>
   </si>
   <si>
-    <t>52</t>
+    <t>57</t>
   </si>
   <si>
     <t>CarStatusPage.查询记录列表</t>
   </si>
   <si>
-    <t>53</t>
+    <t>58</t>
   </si>
   <si>
     <t>8查询界面</t>
   </si>
   <si>
-    <t>54</t>
+    <t>59</t>
   </si>
   <si>
     <t>${001_addTicketBill}.车牌号;1</t>
@@ -764,9 +788,6 @@
     <t>1月票订单界面</t>
   </si>
   <si>
-    <t>点击多项筛选</t>
-  </si>
-  <si>
     <t>MonthTicketBillPage.多项筛选</t>
   </si>
   <si>
@@ -845,70 +866,85 @@
     <t>退款成功</t>
   </si>
   <si>
-    <t>MonthTicketBillPage.导入</t>
+    <t>MonthTicketBillPage.批量开通</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.导入文件</t>
   </si>
   <si>
     <t>选择文件</t>
   </si>
   <si>
+    <t>MonthTicketBillPage.导入文件选择</t>
+  </si>
+  <si>
+    <t>chrome;G:\upload\month_ticket_bill.xls</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.导入-提示</t>
+  </si>
+  <si>
+    <t>等待3秒</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.导入提示界面</t>
+  </si>
+  <si>
+    <t>全部月票导入成功</t>
+  </si>
+  <si>
+    <t>2导入界面</t>
+  </si>
+  <si>
+    <t>点击关闭</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.关闭-提示</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择购买时间</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.最近三个月</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择停车场</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.检查列表的文本</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称</t>
+  </si>
+  <si>
+    <t>2筛选界面</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.批量续费</t>
+  </si>
+  <si>
     <t>MonthTicketBillPage.选择文件</t>
   </si>
   <si>
-    <t>G:\upload\month_ticket_bill.xls</t>
-  </si>
-  <si>
-    <t>等待3秒</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.导入提示界面</t>
+    <t>G:\upload\month_ticket_bill_renewBatch.xls</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.旧版导入提示界面</t>
   </si>
   <si>
     <t>全部成功(提示保留一天)</t>
   </si>
   <si>
-    <t>2导入界面</t>
-  </si>
-  <si>
-    <t>点击关闭</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.关闭-提示</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.选择购买时间</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.最近三个月</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.选择停车场下拉框</t>
-  </si>
-  <si>
-    <t>选择停车场</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.选择停车场</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场名称;on</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.检查列表的文本</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场名称</t>
-  </si>
-  <si>
-    <t>2筛选界面</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.批量续费</t>
-  </si>
-  <si>
-    <t>G:\upload\month_ticket_bill_renewBatch.xls</t>
-  </si>
-  <si>
     <t>2批量续费导入界面</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.旧版关闭-提示</t>
   </si>
   <si>
     <t>MonthTicketBillPage.批量退费</t>
@@ -973,10 +1009,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1014,8 +1050,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,21 +1080,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1052,63 +1088,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,8 +1109,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,7 +1180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,7 +1201,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,175 +1369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,21 +1434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1423,16 +1444,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,17 +1475,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1473,16 +1483,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,6 +1520,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1503,10 +1539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,133 +1551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,14 +1803,10 @@
       <sheetName val="001_addInternalTicket"/>
       <sheetName val="002_InternalTicketUpLowerline"/>
       <sheetName val="003_editInternalTicket"/>
-      <sheetName val="004_delInternalTicket"/>
-      <sheetName val="005_addExternalTicket"/>
-      <sheetName val="006_externalTicketUpLowerline"/>
-      <sheetName val="007_editExternalTicket"/>
       <sheetName val="008_checkSupperParking"/>
       <sheetName val="009_filterMonthTicket"/>
       <sheetName val="010_updateInformation"/>
-      <sheetName val="011_delExternalTicket"/>
+      <sheetName val="004_delInternalTicket"/>
       <sheetName val="012_addInternalTicketCloud"/>
       <sheetName val="013_TicketUpLowerlineCloud"/>
       <sheetName val="014_editInternalTicketCloud"/>
@@ -1801,10 +1833,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2122,8 +2150,8 @@
   <sheetPr/>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2503,10 +2531,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2547,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2556,13 +2584,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2571,13 +2599,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2593,7 +2621,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2601,83 +2629,83 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>96</v>
@@ -2685,29 +2713,64 @@
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>301</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 B10 C10 C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12 C12 C13">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C22">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2719,10 +2782,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2763,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2772,13 +2835,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2787,13 +2850,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2809,7 +2872,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2817,81 +2880,81 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>96</v>
@@ -2899,29 +2962,64 @@
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 B10 C10 C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12 C12 C13">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C25">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2933,10 +3031,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="B8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2977,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2986,13 +3084,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3001,13 +3099,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3023,7 +3121,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3031,126 +3129,161 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>310</v>
+      <c r="D10" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>301</v>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C36:C1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 B11 C11 C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 B13 C13 C14">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C26">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3162,10 +3295,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3206,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -3215,13 +3348,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3230,13 +3363,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3252,7 +3385,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3260,141 +3393,176 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>310</v>
+      <c r="D10" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>301</v>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 B12 C12 C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C38">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3406,10 +3574,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3507,18 +3675,16 @@
         <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>83</v>
@@ -3528,814 +3694,897 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="E18" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" s="6" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="2"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>155</v>
+      <c r="D28" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" ht="26" customHeight="1" spans="1:4">
+    <row r="29" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" ht="26" customHeight="1" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" ht="26" customHeight="1" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" ht="26" customHeight="1" spans="1:6">
-      <c r="A33" s="2" t="s">
+    <row r="34" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" ht="26" customHeight="1" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" ht="26" customHeight="1" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" ht="26" customHeight="1" spans="1:6">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" ht="26" customHeight="1" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" ht="26" customHeight="1" spans="1:6">
-      <c r="A38" s="2" t="s">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" ht="26" customHeight="1" spans="1:6">
-      <c r="A39" s="2" t="s">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" ht="26" customHeight="1" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" ht="26" customHeight="1" spans="1:6">
-      <c r="A41" s="2" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A42" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D42" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A43" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="45" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" ht="26" customHeight="1" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>230</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A51" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A54" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" ht="26" customHeight="1" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" ht="26" customHeight="1" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>242</v>
+      <c r="E60" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C68:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C73:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C25 C26 C27 C28 C2:C3 C12:C13 C18:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C13 C14 C15 C16 C24 C25 C28 C29 C30 C2:C3 C11:C12 C17:C23 C26:C27 C55:C56">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C50 C51 C52 C53 C54 C48:C49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C52 C53 C54 C57 C58 C59 C50:C51">
       <formula1>[2]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47 C55 C29:C40 C41:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49 C60 C31:C42 C43:C47">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C61">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62:C72">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -4348,10 +4597,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4392,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4401,13 +4650,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4423,7 +4672,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4431,13 +4680,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4446,174 +4695,206 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
+      <c r="D7" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>250</v>
+      <c r="D9" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>203</v>
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>253</v>
+      <c r="E17" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C9 C7:C8">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 C13 B14 C14 C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C12 C13 C14 C15 B16 C16 C17">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C29">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -4625,10 +4906,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4668,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4677,13 +4958,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4699,7 +4980,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
@@ -4707,13 +4988,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4722,140 +5003,172 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
+      <c r="D7" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>256</v>
+      <c r="D9" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>258</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4866,10 +5179,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6:C7 C15:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C9 C7:C8 C17:C18">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 B13 C13 C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C12 C13 C14 B15 C15 C16">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -4881,10 +5194,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4922,7 +5235,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4931,13 +5244,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4953,7 +5266,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:5">
@@ -4961,172 +5274,204 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
+      <c r="D7" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>263</v>
+      <c r="D9" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>264</v>
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>266</v>
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>268</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>253</v>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5137,10 +5482,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C9 C7:C8">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C12 C13 B14 C14 C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C14 C15 B16 C16 C17">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -5152,10 +5497,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5193,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -5202,13 +5547,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -5224,7 +5569,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:5">
@@ -5238,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5247,101 +5592,129 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>274</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>280</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9 C10 C4:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C10 C11 C12 C4:C5">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
@@ -5359,7 +5732,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E9" sqref="B8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5398,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -5407,13 +5780,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -5429,7 +5802,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:5">
@@ -5443,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5458,13 +5831,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -5473,13 +5846,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -5488,30 +5861,30 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>82</v>
@@ -5520,15 +5893,15 @@
         <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>96</v>
@@ -5538,7 +5911,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5564,7 +5937,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5603,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -5612,13 +5985,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -5634,7 +6007,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:5">
@@ -5648,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5657,21 +6030,21 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -5680,16 +6053,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -5701,7 +6074,7 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -5710,15 +6083,15 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>96</v>
@@ -5728,21 +6101,21 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -5769,7 +6142,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5807,7 +6180,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -5816,13 +6189,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -5838,7 +6211,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:5">
@@ -5852,7 +6225,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5861,21 +6234,21 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -5884,16 +6257,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -5905,7 +6278,7 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -5914,15 +6287,15 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>96</v>
@@ -5932,21 +6305,21 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="E11" s="4"/>
     </row>
